--- a/public/uploads/exports/hello-world.xlsx
+++ b/public/uploads/exports/hello-world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>株式会社ヤマダ 様 注文フォーマット</t>
   </si>
@@ -24,6 +24,99 @@
   </si>
   <si>
     <t>依頼人名. VO HOANG 様 22日に 7410 円入金済み</t>
+  </si>
+  <si>
+    <t>注文日</t>
+  </si>
+  <si>
+    <t>支払区分</t>
+  </si>
+  <si>
+    <t>配送先電話番号</t>
+  </si>
+  <si>
+    <t>配送先郵便番号</t>
+  </si>
+  <si>
+    <t>配送先都道府県</t>
+  </si>
+  <si>
+    <t>配送先住所</t>
+  </si>
+  <si>
+    <t>配送先氏名</t>
+  </si>
+  <si>
+    <t>品番</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>到着希望日</t>
+  </si>
+  <si>
+    <t>配送希望時間帯</t>
+  </si>
+  <si>
+    <t>別途送料</t>
+  </si>
+  <si>
+    <t>仕入金額</t>
+  </si>
+  <si>
+    <t>代引き請求金額</t>
+  </si>
+  <si>
+    <t>代引き手数料</t>
+  </si>
+  <si>
+    <t>紹介料</t>
+  </si>
+  <si>
+    <t>追跡番号</t>
+  </si>
+  <si>
+    <t>振込み情報</t>
+  </si>
+  <si>
+    <t>23日</t>
+  </si>
+  <si>
+    <t>Thanh toán khi giao hàng</t>
+  </si>
+  <si>
+    <t>070-1398-2234</t>
+  </si>
+  <si>
+    <t>733-0012</t>
+  </si>
+  <si>
+    <t>広島県</t>
+  </si>
+  <si>
+    <t>広島市西区中広町３丁目１−４０-404号</t>
+  </si>
+  <si>
+    <t>VUONG VAN NGHI</t>
+  </si>
+  <si>
+    <t>ヤマダ 03</t>
+  </si>
+  <si>
+    <t>新米入り業務用精白米近江ブレンド25 kg</t>
+  </si>
+  <si>
+    <t>3/25/2020</t>
+  </si>
+  <si>
+    <t>19:00～21:00</t>
   </si>
 </sst>
 </file>
@@ -31,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -59,8 +152,17 @@
       <color rgb="FF0070c0"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,14 +172,34 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE100"/>
+        <bgColor rgb="FFFFE100"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -85,6 +207,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -386,26 +514,205 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A5" sqref="A5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="40" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
+    <col min="19" max="19" width="15" customWidth="true" style="0"/>
+    <col min="20" max="20" width="15" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20">
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7000</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/uploads/exports/hello-world.xlsx
+++ b/public/uploads/exports/hello-world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>株式会社ヤマダ 様 注文フォーマット</t>
   </si>
@@ -86,37 +86,40 @@
     <t>振込み情報</t>
   </si>
   <si>
-    <t>23日</t>
-  </si>
-  <si>
-    <t>Thanh toán khi giao hàng</t>
-  </si>
-  <si>
-    <t>070-1398-2234</t>
-  </si>
-  <si>
-    <t>733-0012</t>
-  </si>
-  <si>
-    <t>広島県</t>
-  </si>
-  <si>
-    <t>広島市西区中広町３丁目１−４０-404号</t>
-  </si>
-  <si>
-    <t>VUONG VAN NGHI</t>
-  </si>
-  <si>
-    <t>ヤマダ 03</t>
-  </si>
-  <si>
-    <t>新米入り業務用精白米近江ブレンド25 kg</t>
-  </si>
-  <si>
-    <t>3/25/2020</t>
-  </si>
-  <si>
-    <t>19:00～21:00</t>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>代金引換</t>
+  </si>
+  <si>
+    <t>0985062890</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>For instructions, click the Deposit button</t>
+  </si>
+  <si>
+    <t>Dao Manh Trung</t>
+  </si>
+  <si>
+    <t>p091</t>
+  </si>
+  <si>
+    <t>豚皮付きバラ</t>
+  </si>
+  <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
+    <t>08:00 ~ 12:00</t>
+  </si>
+  <si>
+    <t>p091s</t>
+  </si>
+  <si>
+    <t>豚皮付きバラ スライス</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -210,9 +213,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -517,18 +517,19 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:T5"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="0"/>
-    <col min="5" max="5" width="40" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9" customWidth="true" style="0"/>
+    <col min="5" max="5" width="14" customWidth="true" style="0"/>
     <col min="6" max="6" width="18" customWidth="true" style="0"/>
     <col min="7" max="7" width="18" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" customWidth="true" style="0"/>
     <col min="9" max="9" width="18" customWidth="true" style="0"/>
     <col min="10" max="10" width="15" customWidth="true" style="0"/>
     <col min="11" max="11" width="15" customWidth="true" style="0"/>
@@ -619,100 +620,128 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4">
+        <v>950</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4">
-        <v>7000</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4">
-        <v>7000</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/uploads/exports/hello-world.xlsx
+++ b/public/uploads/exports/hello-world.xlsx
@@ -659,14 +659,14 @@
       <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
+      <c r="N4">
+        <v>950</v>
+      </c>
+      <c r="O4">
+        <v>950</v>
+      </c>
+      <c r="P4">
+        <v>950</v>
       </c>
       <c r="Q4" t="s">
         <v>25</v>
@@ -721,14 +721,14 @@
       <c r="M5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
+      <c r="N5">
+        <v>1200</v>
+      </c>
+      <c r="O5">
+        <v>1200</v>
+      </c>
+      <c r="P5">
+        <v>1200</v>
       </c>
       <c r="Q5" t="s">
         <v>25</v>
